--- a/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-04-09.xlsx
+++ b/trunk/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-04-09.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -175,6 +175,201 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Quality Audit</t>
+  </si>
+  <si>
+    <t>Make changes as advised</t>
+  </si>
+  <si>
+    <t>During the Quality audit on 02 Apr 11 with Dave, he suggested as to make some changes and gave other useful information on our project.</t>
+  </si>
+  <si>
+    <t>Cover page of Documents</t>
+  </si>
+  <si>
+    <t>All the Documents must have same type of cover page.</t>
+  </si>
+  <si>
+    <t>Chang Parkk Khiong Alvin / Tran Ba Tien</t>
+  </si>
+  <si>
+    <t>The cover pages are chnged.</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>There must be Minutes for every meeting held.</t>
+  </si>
+  <si>
+    <t>The Minutes must have full details about the attendees, issues discussed and solutions proposed and actions taken and to be taken.</t>
+  </si>
+  <si>
+    <t>Roles of Members</t>
+  </si>
+  <si>
+    <t>Dave asked what the roles of each member are and the task assigned to each person.</t>
+  </si>
+  <si>
+    <t>Individuals are assigned specific task.</t>
+  </si>
+  <si>
+    <t>View Minutes</t>
+  </si>
+  <si>
+    <t>Dave took a look at the minutes and suggested that it should also contain the issues discussed last week as well as the Action column.</t>
+  </si>
+  <si>
+    <t>Update Project Plan</t>
+  </si>
+  <si>
+    <t>Dave asked the project Plan to be updated with information using Costar.</t>
+  </si>
+  <si>
+    <t>Re allocation of work load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The work load of Tran Ba Tien and Maung Tin Kyaw Oo are very high, hence Dave asked the workload to be redistributed across the team. </t>
+  </si>
+  <si>
+    <t>This is to ensure that Tran Ba Tien and Maung Tin Kyaw Oo are not over loaded as well as others also fairly share the work load.</t>
+  </si>
+  <si>
+    <t>Updating of staff effort estimate</t>
+  </si>
+  <si>
+    <t>After the work load is redistributed the staff effort estimate must be updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tran Ba Tien </t>
+  </si>
+  <si>
+    <t>This is to reflect the estimate of the reallocation of workload for each staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resubmission of (7 and 8) </t>
+  </si>
+  <si>
+    <t>Dave asked the team to resubmit the above changes (7 and 8) during the presentation on 09 Apr 11.</t>
+  </si>
+  <si>
+    <t>Dave mentioned that we won’t be penaslised for making these changes.</t>
+  </si>
+  <si>
+    <t>Documents and Minutes</t>
+  </si>
+  <si>
+    <t>Dave said that the changes made in any documents must reflect according to the Minutes.</t>
+  </si>
+  <si>
+    <t>This is to ensure consistency and accuracy.</t>
+  </si>
+  <si>
+    <t>Delegation of work</t>
+  </si>
+  <si>
+    <t>Dave mentioned that the dedication of work must be changed in the Quality Plan.</t>
+  </si>
+  <si>
+    <t>Actual System</t>
+  </si>
+  <si>
+    <t>The team was asked to bring the actual system for the next meeting.</t>
+  </si>
+  <si>
+    <t>Review of previous Minutes</t>
+  </si>
+  <si>
+    <t>Dave said that the Actions set in the previous Minutes must be reviewed in the next Minute/meeting.</t>
+  </si>
+  <si>
+    <t>This is to indicate how many hours of work that ach staff has contributed and in what are for that month.</t>
+  </si>
+  <si>
+    <t>Time sheet</t>
+  </si>
+  <si>
+    <t>Update Time sheet to indicate the number of hours of each staff’s effort for the month.</t>
+  </si>
+  <si>
+    <t>Use Gantt chart to keep track control on the Project.</t>
+  </si>
+  <si>
+    <t>It is better and easier than MS Project.</t>
+  </si>
+  <si>
+    <t>Situation report</t>
+  </si>
+  <si>
+    <t>Dave suggested using MS Excel to create and update situation reports.</t>
+  </si>
+  <si>
+    <t>This to ensure that there is one available for backup work while the other is used for presentation.</t>
+  </si>
+  <si>
+    <t>Bring 2 laptops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dave suggested to bring 2 laptops during audit / presentation </t>
+  </si>
+  <si>
+    <t>Confirmation to Quality Plan</t>
+  </si>
+  <si>
+    <t>Dave mentioned that activities and naming convention must confirm to what is written in the Quality Plan.</t>
+  </si>
+  <si>
+    <t>This is to ensure that the team members have reviewed the work and understand the requirements and the changes made.</t>
+  </si>
+  <si>
+    <t>Internal review</t>
+  </si>
+  <si>
+    <t>Dave asked if the submittal were reviewed internally before submission and asked for proof of evidence.</t>
+  </si>
+  <si>
+    <t>The template must have 4 or more columns and must capture details (e.g. DateReviewd, Issue, Suggestion, Reviewer’s Name)</t>
+  </si>
+  <si>
+    <t>Review Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the above mentioned Internal Review there must be templates to fulfil the Review purpose. </t>
+  </si>
+  <si>
+    <t>There must be templates for (Quality Plan, URS, Project Plan)</t>
+  </si>
+  <si>
+    <t>Remove Work Instruction</t>
+  </si>
+  <si>
+    <t>Dave asked the Work Instruction to be removed from Quality Plan.</t>
+  </si>
+  <si>
+    <t>Reflection of Minutes</t>
+  </si>
+  <si>
+    <t>Dave mentioned that the Minutes must be reflected in the Quality Plan</t>
+  </si>
+  <si>
+    <t>Changes made must be reflected</t>
+  </si>
+  <si>
+    <t>Any changes made must be reflected in the relevant documents as well the Minutes</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Dave suggested the team to have meeting every week.</t>
+  </si>
+  <si>
+    <t>Filing system</t>
+  </si>
+  <si>
+    <t>Dave appreciated the team’s online filing system and said would like to have a look at it in the next meeting.</t>
   </si>
 </sst>
 </file>
@@ -665,7 +860,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -968,12 +1163,543 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>